--- a/dataset/mrf_deck.xlsx
+++ b/dataset/mrf_deck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\AppData\Roaming\DBeaverData\workspace6\mrf_analysis\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE85079-45BB-4905-AA59-23F12135F831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B1F6C3-C9E6-4CC9-AA02-2913F4F4D1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9ED7E69B-F661-4C6D-8359-418BBED9164F}"/>
   </bookViews>
@@ -8167,7 +8167,7 @@
                 <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Revenue Distributin Per Customer</a:t>
+              <a:t>Revenue Distributin by Customer Segment</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -27292,7 +27292,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF34851-C059-4452-BA35-DD8B8F6329C7}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF34851-C059-4452-BA35-DD8B8F6329C7}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="D27:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -28570,8 +28570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89D979F-546E-4994-BC91-9F82EAEC28A6}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset/mrf_deck.xlsx
+++ b/dataset/mrf_deck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\AppData\Roaming\DBeaverData\workspace6\mrf_analysis\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B1F6C3-C9E6-4CC9-AA02-2913F4F4D1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728EEF3-8FBF-4384-9D9B-0C85A08D898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9ED7E69B-F661-4C6D-8359-418BBED9164F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9ED7E69B-F661-4C6D-8359-418BBED9164F}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_dist" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,6 @@
     </font>
     <font>
       <sz val="22"/>
-      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -232,10 +231,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -21840,7 +21839,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>99218</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -28570,7 +28569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89D979F-546E-4994-BC91-9F82EAEC28A6}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -29055,33 +29054,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E007BBB7-E962-47F2-BB26-F97C52FE6DE4}">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="48" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
